--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_13_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_13_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1844007.724917315</v>
+        <v>1840919.98142201</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5073895.20576944</v>
+        <v>5073895.205769444</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7232547.016099922</v>
+        <v>7232547.016099923</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>18.24557205089619</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>235.6129214412839</v>
       </c>
       <c r="G11" t="n">
         <v>407.507934086418</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2428107033375</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>78.23081404759461</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.1386391852787</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>214.5978152482438</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0733467601107</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.8882610290828</v>
       </c>
       <c r="H13" t="n">
-        <v>147.8490311540135</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.92949873964717</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>156.2851808980595</v>
+        <v>188.8806982398446</v>
       </c>
       <c r="T13" t="n">
-        <v>230.4425104383659</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5471355314745</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>407.507934086418</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2428107033375</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>78.23081404759461</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.1386391852787</v>
       </c>
       <c r="T14" t="n">
-        <v>173.8774000682458</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0733467601107</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>29.2768067122502</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1694,13 +1694,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>135.082025980222</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0442391793912</v>
+        <v>118.0442391793921</v>
       </c>
       <c r="H15" t="n">
         <v>79.54344568296013</v>
@@ -1767,22 +1767,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>4.548357728304447</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8882610290828</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.8490311540135</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>91.94047005213785</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>188.8806982398446</v>
+        <v>165.6602709644558</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5471355314745</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -1849,7 +1849,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>103.5387777636073</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1858,7 +1858,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>237.6487784696608</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>130.1386391852787</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.8882610290828</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.8490311540135</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>111.2162200565858</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>188.8806982398446</v>
+        <v>112.2184984874995</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.4425104383659</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5471355314745</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.30287166287212</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>208.4455063722359</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>407.507934086418</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>305.2428107033375</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0733467601107</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>181.1308170955266</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>58.27182580101664</v>
+        <v>101.2925013556195</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.8882610290828</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.8490311540135</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>230.4425104383659</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5471355314745</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -2320,7 +2320,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>316.2392217717038</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -2371,7 +2371,7 @@
         <v>130.1386391852787</v>
       </c>
       <c r="T23" t="n">
-        <v>214.5978152482438</v>
+        <v>141.5932905378485</v>
       </c>
       <c r="U23" t="n">
         <v>253.0733467601107</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>82.92920123670159</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.8882610290828</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.94047005213785</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>188.8806982398446</v>
@@ -2538,13 +2538,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>49.40225584646451</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2428107033375</v>
       </c>
       <c r="I26" t="n">
-        <v>78.23081404759461</v>
+        <v>5.226289337199559</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>294.2845199710004</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>145.7667308873285</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.8490311540135</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>111.2162200565858</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>91.94047005213785</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>230.4425104383659</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5471355314745</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>235.3869382706841</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -2797,7 +2797,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>308.5821927851039</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.1386391852787</v>
+        <v>57.13411447488321</v>
       </c>
       <c r="T29" t="n">
         <v>214.5978152482438</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.8882610290828</v>
+        <v>146.3424840341713</v>
       </c>
       <c r="H31" t="n">
-        <v>147.8490311540135</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>13.49593603788398</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>91.94047005213785</v>
       </c>
       <c r="S31" t="n">
-        <v>188.8806982398446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>230.4425104383659</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5471355314745</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -3015,10 +3015,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3088,13 +3088,13 @@
         <v>253.0733467601107</v>
       </c>
       <c r="V32" t="n">
-        <v>265.6812164931217</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>312.5535543058788</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.8882610290828</v>
       </c>
       <c r="H34" t="n">
-        <v>147.8490311540135</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>90.43392293229567</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>188.8806982398446</v>
       </c>
       <c r="T34" t="n">
-        <v>230.4425104383659</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>282.5471355314745</v>
@@ -3249,13 +3249,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>17.81998729320188</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>66.14639661391391</v>
       </c>
       <c r="G35" t="n">
         <v>407.507934086418</v>
       </c>
       <c r="H35" t="n">
-        <v>169.7596580410896</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.1386391852787</v>
       </c>
       <c r="T35" t="n">
-        <v>214.5978152482438</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0733467601107</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>60.4984988468857</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.8882610290828</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.8490311540135</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>111.2162200565858</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>17.40201351478603</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>230.4425104383659</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.5471355314745</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>233.6088092544028</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>407.507934086418</v>
       </c>
       <c r="H38" t="n">
-        <v>280.4529323713258</v>
+        <v>305.2428107033375</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.23081404759461</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>130.1386391852787</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.5978152482438</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0733467601107</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>17.40201351478603</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>230.4425104383659</v>
+        <v>93.76774198664138</v>
       </c>
       <c r="U40" t="n">
         <v>282.5471355314745</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>65.73412662352433</v>
+        <v>278.1116860310004</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>407.507934086418</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2428107033375</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.5978152482438</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>129.3960448082494</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>116.5932105418722</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>230.4425104383659</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5471355314745</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>162.2658729292661</v>
+        <v>407.507934086418</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.23081404759461</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>130.1386391852787</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.5978152482438</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>138.6687889825353</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>60.26083426978811</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>159.3050704214769</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>188.8806982398446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>230.4425104383659</v>
       </c>
       <c r="U46" t="n">
         <v>282.5471355314745</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1279.98208303703</v>
+        <v>1097.887052924661</v>
       </c>
       <c r="C11" t="n">
-        <v>1279.98208303703</v>
+        <v>1097.887052924661</v>
       </c>
       <c r="D11" t="n">
-        <v>1279.98208303703</v>
+        <v>1097.887052924661</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.552212278549</v>
+        <v>695.3035280412055</v>
       </c>
       <c r="F11" t="n">
-        <v>844.6577738085268</v>
+        <v>457.3106781005147</v>
       </c>
       <c r="G11" t="n">
-        <v>433.0335979636602</v>
+        <v>45.686502255648</v>
       </c>
       <c r="H11" t="n">
-        <v>124.7075265461476</v>
+        <v>45.686502255648</v>
       </c>
       <c r="I11" t="n">
         <v>45.686502255648</v>
       </c>
       <c r="J11" t="n">
-        <v>57.16984669795446</v>
+        <v>318.3226591697052</v>
       </c>
       <c r="K11" t="n">
-        <v>607.9706153018037</v>
+        <v>368.5132525986476</v>
       </c>
       <c r="L11" t="n">
-        <v>1173.341080715448</v>
+        <v>454.765267110773</v>
       </c>
       <c r="M11" t="n">
-        <v>1289.898200182845</v>
+        <v>680.359660822272</v>
       </c>
       <c r="N11" t="n">
-        <v>1411.340311146183</v>
+        <v>1245.730126235916</v>
       </c>
       <c r="O11" t="n">
-        <v>1976.710776559827</v>
+        <v>1811.10059164956</v>
       </c>
       <c r="P11" t="n">
-        <v>2207.04824119488</v>
+        <v>1879.148969619723</v>
       </c>
       <c r="Q11" t="n">
         <v>2226.837453818401</v>
@@ -5068,25 +5068,25 @@
         <v>2284.3251127824</v>
       </c>
       <c r="S11" t="n">
-        <v>2152.871941888179</v>
+        <v>2284.3251127824</v>
       </c>
       <c r="T11" t="n">
-        <v>1936.106471940458</v>
+        <v>2284.3251127824</v>
       </c>
       <c r="U11" t="n">
-        <v>1680.476828748427</v>
+        <v>2284.3251127824</v>
       </c>
       <c r="V11" t="n">
-        <v>1680.476828748427</v>
+        <v>2284.3251127824</v>
       </c>
       <c r="W11" t="n">
-        <v>1680.476828748427</v>
+        <v>2284.3251127824</v>
       </c>
       <c r="X11" t="n">
-        <v>1680.476828748427</v>
+        <v>1894.872507715457</v>
       </c>
       <c r="Y11" t="n">
-        <v>1680.476828748427</v>
+        <v>1498.381798636058</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>45.686502255648</v>
       </c>
       <c r="J12" t="n">
-        <v>45.686502255648</v>
+        <v>235.0292979943829</v>
       </c>
       <c r="K12" t="n">
-        <v>87.27101096713389</v>
+        <v>685.0539187480952</v>
       </c>
       <c r="L12" t="n">
-        <v>173.2961665276946</v>
+        <v>1022.125950558447</v>
       </c>
       <c r="M12" t="n">
-        <v>738.6666319413387</v>
+        <v>1135.09521386514</v>
       </c>
       <c r="N12" t="n">
-        <v>1304.037097354983</v>
+        <v>1260.420056616263</v>
       </c>
       <c r="O12" t="n">
-        <v>1869.407562768627</v>
+        <v>1360.624936658986</v>
       </c>
       <c r="P12" t="n">
-        <v>2244.75895712018</v>
+        <v>1920.315593940935</v>
       </c>
       <c r="Q12" t="n">
         <v>2257.671924744569</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.5928579961494</v>
+        <v>439.5193726952848</v>
       </c>
       <c r="C13" t="n">
-        <v>362.5928579961494</v>
+        <v>439.5193726952848</v>
       </c>
       <c r="D13" t="n">
-        <v>362.5928579961494</v>
+        <v>283.8862595977996</v>
       </c>
       <c r="E13" t="n">
-        <v>362.5928579961494</v>
+        <v>283.8862595977996</v>
       </c>
       <c r="F13" t="n">
-        <v>362.5928579961494</v>
+        <v>283.8862595977996</v>
       </c>
       <c r="G13" t="n">
-        <v>195.0289579667728</v>
+        <v>116.3223595684229</v>
       </c>
       <c r="H13" t="n">
-        <v>45.686502255648</v>
+        <v>116.3223595684229</v>
       </c>
       <c r="I13" t="n">
         <v>45.686502255648</v>
@@ -5226,25 +5226,25 @@
         <v>1587.937783898592</v>
       </c>
       <c r="S13" t="n">
-        <v>1430.073964809643</v>
+        <v>1397.149199817941</v>
       </c>
       <c r="T13" t="n">
-        <v>1197.303752245637</v>
+        <v>1397.149199817941</v>
       </c>
       <c r="U13" t="n">
-        <v>911.9026052441476</v>
+        <v>1397.149199817941</v>
       </c>
       <c r="V13" t="n">
-        <v>645.9232600649718</v>
+        <v>1131.169854638765</v>
       </c>
       <c r="W13" t="n">
-        <v>362.5928579961494</v>
+        <v>847.8394525699428</v>
       </c>
       <c r="X13" t="n">
-        <v>362.5928579961494</v>
+        <v>847.8394525699428</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.5928579961494</v>
+        <v>624.7273913865861</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>354.0125736731606</v>
+        <v>1355.809665744492</v>
       </c>
       <c r="C14" t="n">
-        <v>354.0125736731606</v>
+        <v>1355.809665744492</v>
       </c>
       <c r="D14" t="n">
-        <v>354.0125736731606</v>
+        <v>1355.809665744492</v>
       </c>
       <c r="E14" t="n">
-        <v>354.0125736731606</v>
+        <v>953.2261408610365</v>
       </c>
       <c r="F14" t="n">
-        <v>354.0125736731606</v>
+        <v>536.3317023910142</v>
       </c>
       <c r="G14" t="n">
-        <v>354.0125736731606</v>
+        <v>124.7075265461476</v>
       </c>
       <c r="H14" t="n">
-        <v>45.686502255648</v>
+        <v>124.7075265461476</v>
       </c>
       <c r="I14" t="n">
         <v>45.686502255648</v>
       </c>
       <c r="J14" t="n">
-        <v>57.16984669795444</v>
+        <v>318.3226591697052</v>
       </c>
       <c r="K14" t="n">
-        <v>107.3604401268968</v>
+        <v>368.5132525986475</v>
       </c>
       <c r="L14" t="n">
-        <v>672.7309055405409</v>
+        <v>933.8837180122916</v>
       </c>
       <c r="M14" t="n">
-        <v>1008.258932397429</v>
+        <v>1499.254183425936</v>
       </c>
       <c r="N14" t="n">
-        <v>1573.629397811073</v>
+        <v>1620.696294389273</v>
       </c>
       <c r="O14" t="n">
-        <v>2138.999863224717</v>
+        <v>1726.70271626828</v>
       </c>
       <c r="P14" t="n">
-        <v>2207.04824119488</v>
+        <v>1879.148969619723</v>
       </c>
       <c r="Q14" t="n">
         <v>2226.837453818401</v>
@@ -5305,25 +5305,25 @@
         <v>2284.3251127824</v>
       </c>
       <c r="S14" t="n">
-        <v>2284.3251127824</v>
+        <v>2152.871941888179</v>
       </c>
       <c r="T14" t="n">
-        <v>2108.691375339728</v>
+        <v>2152.871941888179</v>
       </c>
       <c r="U14" t="n">
-        <v>1853.061732147697</v>
+        <v>2152.871941888179</v>
       </c>
       <c r="V14" t="n">
-        <v>1510.954922851215</v>
+        <v>2123.299409855603</v>
       </c>
       <c r="W14" t="n">
-        <v>1139.955887819503</v>
+        <v>1752.300374823891</v>
       </c>
       <c r="X14" t="n">
-        <v>750.5032827525595</v>
+        <v>1752.300374823891</v>
       </c>
       <c r="Y14" t="n">
-        <v>354.0125736731606</v>
+        <v>1355.809665744492</v>
       </c>
     </row>
     <row r="15">
@@ -5342,10 +5342,10 @@
         <v>527.1925045979892</v>
       </c>
       <c r="E15" t="n">
-        <v>390.7460137088761</v>
+        <v>390.7460137088769</v>
       </c>
       <c r="F15" t="n">
-        <v>266.3142075920079</v>
+        <v>266.3142075920088</v>
       </c>
       <c r="G15" t="n">
         <v>147.0776023602996</v>
@@ -5357,25 +5357,25 @@
         <v>45.686502255648</v>
       </c>
       <c r="J15" t="n">
-        <v>45.686502255648</v>
+        <v>235.0292979943829</v>
       </c>
       <c r="K15" t="n">
-        <v>87.27101096713386</v>
+        <v>276.6138067058687</v>
       </c>
       <c r="L15" t="n">
-        <v>480.7908034848178</v>
+        <v>362.6389622664294</v>
       </c>
       <c r="M15" t="n">
-        <v>1046.161268898462</v>
+        <v>928.0094276800735</v>
       </c>
       <c r="N15" t="n">
-        <v>1611.531734312106</v>
+        <v>1260.420056616263</v>
       </c>
       <c r="O15" t="n">
-        <v>2176.90219972575</v>
+        <v>1360.624936658986</v>
       </c>
       <c r="P15" t="n">
-        <v>2244.75895712018</v>
+        <v>1920.315593940935</v>
       </c>
       <c r="Q15" t="n">
         <v>2257.671924744569</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.28080299130906</v>
+        <v>1001.31583595547</v>
       </c>
       <c r="C16" t="n">
-        <v>45.686502255648</v>
+        <v>831.1107180214592</v>
       </c>
       <c r="D16" t="n">
-        <v>45.686502255648</v>
+        <v>675.477604923974</v>
       </c>
       <c r="E16" t="n">
-        <v>45.686502255648</v>
+        <v>519.9187927831765</v>
       </c>
       <c r="F16" t="n">
-        <v>45.686502255648</v>
+        <v>362.5928579961494</v>
       </c>
       <c r="G16" t="n">
-        <v>45.686502255648</v>
+        <v>195.0289579667728</v>
       </c>
       <c r="H16" t="n">
         <v>45.686502255648</v>
@@ -5460,28 +5460,28 @@
         <v>1587.937783898592</v>
       </c>
       <c r="R16" t="n">
-        <v>1495.068622229766</v>
+        <v>1587.937783898592</v>
       </c>
       <c r="S16" t="n">
-        <v>1304.280038149115</v>
+        <v>1420.604176863788</v>
       </c>
       <c r="T16" t="n">
-        <v>1304.280038149115</v>
+        <v>1420.604176863788</v>
       </c>
       <c r="U16" t="n">
-        <v>1018.878891147625</v>
+        <v>1420.604176863788</v>
       </c>
       <c r="V16" t="n">
-        <v>752.8995459684496</v>
+        <v>1420.604176863788</v>
       </c>
       <c r="W16" t="n">
-        <v>469.5691438996272</v>
+        <v>1420.604176863788</v>
       </c>
       <c r="X16" t="n">
-        <v>235.4888216826103</v>
+        <v>1186.523854646771</v>
       </c>
       <c r="Y16" t="n">
-        <v>235.4888216826103</v>
+        <v>1186.523854646771</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1883.830367071003</v>
+        <v>1362.924591109839</v>
       </c>
       <c r="C17" t="n">
-        <v>1490.654865573934</v>
+        <v>969.7490896127695</v>
       </c>
       <c r="D17" t="n">
-        <v>1105.213736790601</v>
+        <v>865.1644656091257</v>
       </c>
       <c r="E17" t="n">
-        <v>702.6302119071458</v>
+        <v>462.5809407256702</v>
       </c>
       <c r="F17" t="n">
-        <v>285.7357734371236</v>
+        <v>45.686502255648</v>
       </c>
       <c r="G17" t="n">
         <v>45.686502255648</v>
@@ -5518,22 +5518,22 @@
         <v>318.3226591697052</v>
       </c>
       <c r="K17" t="n">
-        <v>368.5132525986475</v>
+        <v>869.1234277735543</v>
       </c>
       <c r="L17" t="n">
-        <v>933.8837180122916</v>
+        <v>955.3754422856797</v>
       </c>
       <c r="M17" t="n">
-        <v>1467.622975932066</v>
+        <v>1071.932561753077</v>
       </c>
       <c r="N17" t="n">
-        <v>2032.99344134571</v>
+        <v>1193.374672716415</v>
       </c>
       <c r="O17" t="n">
-        <v>2138.999863224717</v>
+        <v>1314.114666749522</v>
       </c>
       <c r="P17" t="n">
-        <v>2207.04824119488</v>
+        <v>1879.148969619723</v>
       </c>
       <c r="Q17" t="n">
         <v>2226.837453818401</v>
@@ -5542,25 +5542,25 @@
         <v>2284.3251127824</v>
       </c>
       <c r="S17" t="n">
-        <v>2284.3251127824</v>
+        <v>2152.871941888179</v>
       </c>
       <c r="T17" t="n">
-        <v>2284.3251127824</v>
+        <v>2152.871941888179</v>
       </c>
       <c r="U17" t="n">
-        <v>2284.3251127824</v>
+        <v>2152.871941888179</v>
       </c>
       <c r="V17" t="n">
-        <v>2284.3251127824</v>
+        <v>2152.871941888179</v>
       </c>
       <c r="W17" t="n">
-        <v>2284.3251127824</v>
+        <v>2152.871941888179</v>
       </c>
       <c r="X17" t="n">
-        <v>2284.3251127824</v>
+        <v>1763.419336821236</v>
       </c>
       <c r="Y17" t="n">
-        <v>2284.3251127824</v>
+        <v>1763.419336821236</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>45.686502255648</v>
       </c>
       <c r="J18" t="n">
-        <v>45.686502255648</v>
+        <v>235.0292979943829</v>
       </c>
       <c r="K18" t="n">
-        <v>495.7111230093603</v>
+        <v>685.0539187480952</v>
       </c>
       <c r="L18" t="n">
-        <v>581.736278569921</v>
+        <v>1250.424384161739</v>
       </c>
       <c r="M18" t="n">
-        <v>1147.106743983565</v>
+        <v>1363.393647468432</v>
       </c>
       <c r="N18" t="n">
-        <v>1611.516607833338</v>
+        <v>1488.718490219555</v>
       </c>
       <c r="O18" t="n">
-        <v>1711.721487876061</v>
+        <v>1588.923370262278</v>
       </c>
       <c r="P18" t="n">
-        <v>2271.41214515801</v>
+        <v>1920.315593940934</v>
       </c>
       <c r="Q18" t="n">
-        <v>2284.325112782399</v>
+        <v>2257.671924744569</v>
       </c>
       <c r="R18" t="n">
         <v>2284.325112782399</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1113.655452174243</v>
+        <v>215.8916201896588</v>
       </c>
       <c r="C19" t="n">
-        <v>943.4503342402327</v>
+        <v>45.686502255648</v>
       </c>
       <c r="D19" t="n">
-        <v>787.8172211427475</v>
+        <v>45.686502255648</v>
       </c>
       <c r="E19" t="n">
-        <v>632.25840900195</v>
+        <v>45.686502255648</v>
       </c>
       <c r="F19" t="n">
-        <v>474.9324742149229</v>
+        <v>45.686502255648</v>
       </c>
       <c r="G19" t="n">
-        <v>307.3685741855463</v>
+        <v>45.686502255648</v>
       </c>
       <c r="H19" t="n">
-        <v>158.0261184744216</v>
+        <v>45.686502255648</v>
       </c>
       <c r="I19" t="n">
         <v>45.686502255648</v>
@@ -5700,25 +5700,25 @@
         <v>1587.937783898592</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.149199817941</v>
+        <v>1474.58576522435</v>
       </c>
       <c r="T19" t="n">
-        <v>1397.149199817941</v>
+        <v>1241.815552660344</v>
       </c>
       <c r="U19" t="n">
-        <v>1397.149199817941</v>
+        <v>956.4144056588548</v>
       </c>
       <c r="V19" t="n">
-        <v>1397.149199817941</v>
+        <v>956.4144056588548</v>
       </c>
       <c r="W19" t="n">
-        <v>1397.149199817941</v>
+        <v>673.0840035900324</v>
       </c>
       <c r="X19" t="n">
-        <v>1397.149199817941</v>
+        <v>439.0036813730154</v>
       </c>
       <c r="Y19" t="n">
-        <v>1298.863470865545</v>
+        <v>215.8916201896588</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1487.339657991604</v>
+        <v>1132.629203953562</v>
       </c>
       <c r="C20" t="n">
-        <v>1487.339657991604</v>
+        <v>739.4537024564929</v>
       </c>
       <c r="D20" t="n">
-        <v>1276.788641453992</v>
+        <v>354.0125736731606</v>
       </c>
       <c r="E20" t="n">
-        <v>874.2051165705369</v>
+        <v>354.0125736731606</v>
       </c>
       <c r="F20" t="n">
-        <v>457.3106781005147</v>
+        <v>354.0125736731606</v>
       </c>
       <c r="G20" t="n">
-        <v>45.686502255648</v>
+        <v>354.0125736731606</v>
       </c>
       <c r="H20" t="n">
         <v>45.686502255648</v>
@@ -5755,19 +5755,19 @@
         <v>318.3226591697052</v>
       </c>
       <c r="K20" t="n">
-        <v>368.5132525986475</v>
+        <v>869.1234277735543</v>
       </c>
       <c r="L20" t="n">
-        <v>933.8837180122916</v>
+        <v>955.3754422856797</v>
       </c>
       <c r="M20" t="n">
-        <v>1499.254183425936</v>
+        <v>1071.932561753077</v>
       </c>
       <c r="N20" t="n">
-        <v>1620.696294389273</v>
+        <v>1193.374672716415</v>
       </c>
       <c r="O20" t="n">
-        <v>1811.10059164956</v>
+        <v>1314.114666749522</v>
       </c>
       <c r="P20" t="n">
         <v>1879.148969619723</v>
@@ -5785,19 +5785,19 @@
         <v>2284.3251127824</v>
       </c>
       <c r="U20" t="n">
-        <v>2284.3251127824</v>
+        <v>2028.695469590369</v>
       </c>
       <c r="V20" t="n">
-        <v>2284.3251127824</v>
+        <v>1686.588660293888</v>
       </c>
       <c r="W20" t="n">
-        <v>2284.3251127824</v>
+        <v>1315.589625262175</v>
       </c>
       <c r="X20" t="n">
-        <v>2284.3251127824</v>
+        <v>1315.589625262175</v>
       </c>
       <c r="Y20" t="n">
-        <v>1887.834403703001</v>
+        <v>1132.629203953562</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>429.4367671740887</v>
+        <v>297.3446159017419</v>
       </c>
       <c r="C22" t="n">
-        <v>429.4367671740887</v>
+        <v>297.3446159017419</v>
       </c>
       <c r="D22" t="n">
-        <v>429.4367671740887</v>
+        <v>297.3446159017419</v>
       </c>
       <c r="E22" t="n">
-        <v>370.5763370720517</v>
+        <v>195.0289579667728</v>
       </c>
       <c r="F22" t="n">
-        <v>213.2504022850246</v>
+        <v>195.0289579667728</v>
       </c>
       <c r="G22" t="n">
-        <v>45.686502255648</v>
+        <v>195.0289579667728</v>
       </c>
       <c r="H22" t="n">
         <v>45.686502255648</v>
@@ -5943,19 +5943,19 @@
         <v>1355.167571334586</v>
       </c>
       <c r="U22" t="n">
-        <v>1355.167571334586</v>
+        <v>1069.766424333097</v>
       </c>
       <c r="V22" t="n">
-        <v>1355.167571334586</v>
+        <v>803.7870791539209</v>
       </c>
       <c r="W22" t="n">
-        <v>1071.837169265764</v>
+        <v>520.4566770850986</v>
       </c>
       <c r="X22" t="n">
-        <v>837.7568470487466</v>
+        <v>520.4566770850986</v>
       </c>
       <c r="Y22" t="n">
-        <v>614.64478586539</v>
+        <v>297.3446159017419</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2421.828331427798</v>
+        <v>2495.570275579712</v>
       </c>
       <c r="C23" t="n">
         <v>2102.394774082643</v>
@@ -5989,16 +5989,16 @@
         <v>98.50441039295407</v>
       </c>
       <c r="J23" t="n">
-        <v>371.1405673070112</v>
+        <v>371.1405673070113</v>
       </c>
       <c r="K23" t="n">
-        <v>921.9413359108604</v>
+        <v>921.9413359108605</v>
       </c>
       <c r="L23" t="n">
-        <v>1653.229330174701</v>
+        <v>1653.229330174702</v>
       </c>
       <c r="M23" t="n">
-        <v>2464.015150768429</v>
+        <v>2464.01515076843</v>
       </c>
       <c r="N23" t="n">
         <v>3260.895851793635</v>
@@ -6007,7 +6007,7 @@
         <v>3955.010073614826</v>
       </c>
       <c r="P23" t="n">
-        <v>4520.044376485027</v>
+        <v>4520.044376485026</v>
       </c>
       <c r="Q23" t="n">
         <v>4867.732860683705</v>
@@ -6019,22 +6019,22 @@
         <v>4793.767348753483</v>
       </c>
       <c r="T23" t="n">
-        <v>4577.001878805762</v>
+        <v>4650.743822957676</v>
       </c>
       <c r="U23" t="n">
-        <v>4321.372235613731</v>
+        <v>4395.114179765646</v>
       </c>
       <c r="V23" t="n">
-        <v>3979.26542631725</v>
+        <v>4053.007370469164</v>
       </c>
       <c r="W23" t="n">
-        <v>3608.266391285537</v>
+        <v>3682.008335437451</v>
       </c>
       <c r="X23" t="n">
-        <v>3218.813786218594</v>
+        <v>3292.555730370508</v>
       </c>
       <c r="Y23" t="n">
-        <v>2822.323077139195</v>
+        <v>2896.065021291109</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>98.50441039295407</v>
       </c>
       <c r="J24" t="n">
-        <v>98.50441039295407</v>
+        <v>287.8472061316889</v>
       </c>
       <c r="K24" t="n">
-        <v>548.5290311466664</v>
+        <v>737.8718268854013</v>
       </c>
       <c r="L24" t="n">
-        <v>685.744046976644</v>
+        <v>1074.943858695752</v>
       </c>
       <c r="M24" t="n">
-        <v>798.713310283337</v>
+        <v>1187.913122002445</v>
       </c>
       <c r="N24" t="n">
-        <v>1664.334515970644</v>
+        <v>1313.237964753568</v>
       </c>
       <c r="O24" t="n">
-        <v>1764.539396013367</v>
+        <v>1413.442844796291</v>
       </c>
       <c r="P24" t="n">
-        <v>2324.230053295316</v>
+        <v>1973.13350207824</v>
       </c>
       <c r="Q24" t="n">
-        <v>2337.143020919705</v>
+        <v>2310.489832881874</v>
       </c>
       <c r="R24" t="n">
         <v>2337.143020919705</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>349.8351803583929</v>
+        <v>98.50441039295407</v>
       </c>
       <c r="C25" t="n">
-        <v>349.8351803583929</v>
+        <v>98.50441039295407</v>
       </c>
       <c r="D25" t="n">
-        <v>266.0683104223307</v>
+        <v>98.50441039295407</v>
       </c>
       <c r="E25" t="n">
-        <v>266.0683104223307</v>
+        <v>98.50441039295407</v>
       </c>
       <c r="F25" t="n">
-        <v>266.0683104223307</v>
+        <v>98.50441039295407</v>
       </c>
       <c r="G25" t="n">
         <v>98.50441039295407</v>
@@ -6171,28 +6171,28 @@
         <v>1640.755692035898</v>
       </c>
       <c r="R25" t="n">
-        <v>1547.886530367072</v>
+        <v>1640.755692035898</v>
       </c>
       <c r="S25" t="n">
-        <v>1357.097946286421</v>
+        <v>1449.967107955247</v>
       </c>
       <c r="T25" t="n">
-        <v>1124.327733722415</v>
+        <v>1217.196895391241</v>
       </c>
       <c r="U25" t="n">
-        <v>838.9265867209253</v>
+        <v>931.7957483897515</v>
       </c>
       <c r="V25" t="n">
-        <v>572.9472415417496</v>
+        <v>665.8164032105757</v>
       </c>
       <c r="W25" t="n">
-        <v>572.9472415417496</v>
+        <v>382.4860011417533</v>
       </c>
       <c r="X25" t="n">
-        <v>572.9472415417496</v>
+        <v>148.4056789247364</v>
       </c>
       <c r="Y25" t="n">
-        <v>349.8351803583929</v>
+        <v>98.50441039295407</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2495.570275579712</v>
+        <v>2421.828331427798</v>
       </c>
       <c r="C26" t="n">
-        <v>2102.394774082643</v>
+        <v>2028.652829930729</v>
       </c>
       <c r="D26" t="n">
-        <v>1716.953645299311</v>
+        <v>1643.211701147397</v>
       </c>
       <c r="E26" t="n">
-        <v>1314.370120415855</v>
+        <v>1240.628176263941</v>
       </c>
       <c r="F26" t="n">
-        <v>897.475681945833</v>
+        <v>823.7337377939187</v>
       </c>
       <c r="G26" t="n">
-        <v>485.8515061009663</v>
+        <v>412.1095619490521</v>
       </c>
       <c r="H26" t="n">
-        <v>177.5254346834537</v>
+        <v>103.7834905315395</v>
       </c>
       <c r="I26" t="n">
         <v>98.50441039295407</v>
@@ -6235,7 +6235,7 @@
         <v>1653.229330174701</v>
       </c>
       <c r="M26" t="n">
-        <v>2464.015150768429</v>
+        <v>2464.01515076843</v>
       </c>
       <c r="N26" t="n">
         <v>3260.895851793635</v>
@@ -6265,13 +6265,13 @@
         <v>3979.26542631725</v>
       </c>
       <c r="W26" t="n">
-        <v>3682.008335437451</v>
+        <v>3608.266391285537</v>
       </c>
       <c r="X26" t="n">
-        <v>3292.555730370508</v>
+        <v>3218.813786218594</v>
       </c>
       <c r="Y26" t="n">
-        <v>2896.065021291109</v>
+        <v>2822.323077139195</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>98.50441039295407</v>
       </c>
       <c r="J27" t="n">
-        <v>98.50441039295407</v>
+        <v>287.8472061316889</v>
       </c>
       <c r="K27" t="n">
-        <v>140.0889191044399</v>
+        <v>737.8718268854013</v>
       </c>
       <c r="L27" t="n">
-        <v>226.1140746650006</v>
+        <v>1074.943858695752</v>
       </c>
       <c r="M27" t="n">
-        <v>1058.318238427194</v>
+        <v>1187.913122002445</v>
       </c>
       <c r="N27" t="n">
-        <v>1923.9394441145</v>
+        <v>1313.237964753568</v>
       </c>
       <c r="O27" t="n">
-        <v>2024.144324157224</v>
+        <v>1413.442844796291</v>
       </c>
       <c r="P27" t="n">
-        <v>2324.230053295316</v>
+        <v>1973.13350207824</v>
       </c>
       <c r="Q27" t="n">
-        <v>2337.143020919705</v>
+        <v>2310.489832881874</v>
       </c>
       <c r="R27" t="n">
         <v>2337.143020919705</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>573.2745852224045</v>
+        <v>841.583525495146</v>
       </c>
       <c r="C28" t="n">
-        <v>403.0694672883938</v>
+        <v>671.3784075611352</v>
       </c>
       <c r="D28" t="n">
-        <v>403.0694672883938</v>
+        <v>515.7452944636499</v>
       </c>
       <c r="E28" t="n">
-        <v>403.0694672883938</v>
+        <v>360.1864823228524</v>
       </c>
       <c r="F28" t="n">
-        <v>245.7435325013667</v>
+        <v>360.1864823228524</v>
       </c>
       <c r="G28" t="n">
-        <v>98.50441039295407</v>
+        <v>360.1864823228524</v>
       </c>
       <c r="H28" t="n">
-        <v>98.50441039295407</v>
+        <v>210.8440266117277</v>
       </c>
       <c r="I28" t="n">
         <v>98.50441039295407</v>
@@ -6408,28 +6408,28 @@
         <v>1640.755692035898</v>
       </c>
       <c r="R28" t="n">
-        <v>1640.755692035898</v>
+        <v>1547.886530367072</v>
       </c>
       <c r="S28" t="n">
-        <v>1640.755692035898</v>
+        <v>1547.886530367072</v>
       </c>
       <c r="T28" t="n">
-        <v>1407.985479471892</v>
+        <v>1547.886530367072</v>
       </c>
       <c r="U28" t="n">
-        <v>1122.584332470403</v>
+        <v>1547.886530367072</v>
       </c>
       <c r="V28" t="n">
-        <v>856.6049872912268</v>
+        <v>1310.12194625527</v>
       </c>
       <c r="W28" t="n">
-        <v>573.2745852224045</v>
+        <v>1026.791544186447</v>
       </c>
       <c r="X28" t="n">
-        <v>573.2745852224045</v>
+        <v>1026.791544186447</v>
       </c>
       <c r="Y28" t="n">
-        <v>573.2745852224045</v>
+        <v>1026.791544186447</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2421.828331427798</v>
+        <v>2495.570275579712</v>
       </c>
       <c r="C29" t="n">
-        <v>2028.652829930729</v>
+        <v>2102.394774082643</v>
       </c>
       <c r="D29" t="n">
         <v>1716.953645299311</v>
@@ -6463,16 +6463,16 @@
         <v>98.50441039295407</v>
       </c>
       <c r="J29" t="n">
-        <v>371.1405673070112</v>
+        <v>371.1405673070116</v>
       </c>
       <c r="K29" t="n">
-        <v>921.9413359108604</v>
+        <v>921.9413359108607</v>
       </c>
       <c r="L29" t="n">
-        <v>1653.229330174701</v>
+        <v>1653.229330174702</v>
       </c>
       <c r="M29" t="n">
-        <v>2464.015150768429</v>
+        <v>2464.01515076843</v>
       </c>
       <c r="N29" t="n">
         <v>3260.895851793635</v>
@@ -6490,25 +6490,25 @@
         <v>4925.220519647703</v>
       </c>
       <c r="S29" t="n">
-        <v>4793.767348753483</v>
+        <v>4867.509292905397</v>
       </c>
       <c r="T29" t="n">
-        <v>4577.001878805762</v>
+        <v>4650.743822957676</v>
       </c>
       <c r="U29" t="n">
-        <v>4321.372235613731</v>
+        <v>4395.114179765646</v>
       </c>
       <c r="V29" t="n">
-        <v>3979.26542631725</v>
+        <v>4053.007370469164</v>
       </c>
       <c r="W29" t="n">
-        <v>3608.266391285537</v>
+        <v>3682.008335437451</v>
       </c>
       <c r="X29" t="n">
-        <v>3218.813786218594</v>
+        <v>3292.555730370508</v>
       </c>
       <c r="Y29" t="n">
-        <v>2822.323077139195</v>
+        <v>2896.065021291109</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>98.50441039295407</v>
       </c>
       <c r="J30" t="n">
-        <v>98.50441039295407</v>
+        <v>287.8472061316889</v>
       </c>
       <c r="K30" t="n">
-        <v>140.0889191044399</v>
+        <v>380.6377372442103</v>
       </c>
       <c r="L30" t="n">
-        <v>226.1140746650006</v>
+        <v>466.662892804771</v>
       </c>
       <c r="M30" t="n">
-        <v>1058.318238427194</v>
+        <v>579.632156111464</v>
       </c>
       <c r="N30" t="n">
-        <v>1923.9394441145</v>
+        <v>704.9569988625868</v>
       </c>
       <c r="O30" t="n">
-        <v>2256.373295900886</v>
+        <v>1413.442844796291</v>
       </c>
       <c r="P30" t="n">
-        <v>2324.230053295316</v>
+        <v>1973.13350207824</v>
       </c>
       <c r="Q30" t="n">
-        <v>2337.143020919705</v>
+        <v>2310.489832881874</v>
       </c>
       <c r="R30" t="n">
         <v>2337.143020919705</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.6761378550659</v>
+        <v>246.3251013365615</v>
       </c>
       <c r="C31" t="n">
-        <v>584.6761378550659</v>
+        <v>246.3251013365615</v>
       </c>
       <c r="D31" t="n">
-        <v>429.0430247575807</v>
+        <v>246.3251013365615</v>
       </c>
       <c r="E31" t="n">
-        <v>429.0430247575807</v>
+        <v>246.3251013365615</v>
       </c>
       <c r="F31" t="n">
-        <v>429.0430247575807</v>
+        <v>246.3251013365615</v>
       </c>
       <c r="G31" t="n">
-        <v>261.4791247282041</v>
+        <v>98.50441039295407</v>
       </c>
       <c r="H31" t="n">
-        <v>112.1366690170793</v>
+        <v>98.50441039295407</v>
       </c>
       <c r="I31" t="n">
         <v>98.50441039295407</v>
@@ -6648,25 +6648,25 @@
         <v>1547.886530367072</v>
       </c>
       <c r="S31" t="n">
-        <v>1357.097946286421</v>
+        <v>1547.886530367072</v>
       </c>
       <c r="T31" t="n">
-        <v>1357.097946286421</v>
+        <v>1315.116317803066</v>
       </c>
       <c r="U31" t="n">
-        <v>1357.097946286421</v>
+        <v>1029.715170801577</v>
       </c>
       <c r="V31" t="n">
-        <v>1091.118601107245</v>
+        <v>763.7358256224007</v>
       </c>
       <c r="W31" t="n">
-        <v>807.7881990384226</v>
+        <v>480.4054235535784</v>
       </c>
       <c r="X31" t="n">
-        <v>807.7881990384226</v>
+        <v>246.3251013365615</v>
       </c>
       <c r="Y31" t="n">
-        <v>584.6761378550659</v>
+        <v>246.3251013365615</v>
       </c>
     </row>
     <row r="32">
@@ -6700,16 +6700,16 @@
         <v>98.50441039295407</v>
       </c>
       <c r="J32" t="n">
-        <v>371.1405673070113</v>
+        <v>371.1405673070112</v>
       </c>
       <c r="K32" t="n">
-        <v>921.9413359108605</v>
+        <v>921.9413359108604</v>
       </c>
       <c r="L32" t="n">
-        <v>1653.229330174702</v>
+        <v>1653.229330174701</v>
       </c>
       <c r="M32" t="n">
-        <v>2464.01515076843</v>
+        <v>2464.015150768429</v>
       </c>
       <c r="N32" t="n">
         <v>3260.895851793635</v>
@@ -6718,7 +6718,7 @@
         <v>3955.010073614826</v>
       </c>
       <c r="P32" t="n">
-        <v>4520.044376485026</v>
+        <v>4520.044376485027</v>
       </c>
       <c r="Q32" t="n">
         <v>4867.732860683705</v>
@@ -6736,10 +6736,10 @@
         <v>4321.372235613731</v>
       </c>
       <c r="V32" t="n">
-        <v>4053.007370469164</v>
+        <v>3979.26542631725</v>
       </c>
       <c r="W32" t="n">
-        <v>3682.008335437451</v>
+        <v>3608.266391285537</v>
       </c>
       <c r="X32" t="n">
         <v>3292.555730370508</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>339.1942630053876</v>
+        <v>423.3942452093577</v>
       </c>
       <c r="C34" t="n">
-        <v>339.1942630053876</v>
+        <v>423.3942452093577</v>
       </c>
       <c r="D34" t="n">
-        <v>339.1942630053876</v>
+        <v>423.3942452093577</v>
       </c>
       <c r="E34" t="n">
-        <v>339.1942630053876</v>
+        <v>423.3942452093577</v>
       </c>
       <c r="F34" t="n">
-        <v>339.1942630053876</v>
+        <v>266.0683104223307</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1942630053876</v>
+        <v>98.50441039295407</v>
       </c>
       <c r="H34" t="n">
-        <v>189.8518072942628</v>
+        <v>98.50441039295407</v>
       </c>
       <c r="I34" t="n">
         <v>98.50441039295407</v>
@@ -6885,25 +6885,25 @@
         <v>1640.755692035898</v>
       </c>
       <c r="S34" t="n">
-        <v>1640.755692035898</v>
+        <v>1449.967107955247</v>
       </c>
       <c r="T34" t="n">
-        <v>1407.985479471892</v>
+        <v>1449.967107955247</v>
       </c>
       <c r="U34" t="n">
-        <v>1122.584332470403</v>
+        <v>1164.565960953757</v>
       </c>
       <c r="V34" t="n">
-        <v>856.6049872912268</v>
+        <v>898.5866157745817</v>
       </c>
       <c r="W34" t="n">
-        <v>573.2745852224045</v>
+        <v>880.5866286097313</v>
       </c>
       <c r="X34" t="n">
-        <v>339.1942630053876</v>
+        <v>646.5063063927144</v>
       </c>
       <c r="Y34" t="n">
-        <v>339.1942630053876</v>
+        <v>423.3942452093577</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1455.394449397357</v>
+        <v>1712.456781180286</v>
       </c>
       <c r="C35" t="n">
-        <v>1455.394449397357</v>
+        <v>1319.281279683217</v>
       </c>
       <c r="D35" t="n">
-        <v>1455.394449397357</v>
+        <v>933.8401508998847</v>
       </c>
       <c r="E35" t="n">
-        <v>1052.810924513902</v>
+        <v>531.2566260164292</v>
       </c>
       <c r="F35" t="n">
-        <v>635.9164860438794</v>
+        <v>464.4420839821727</v>
       </c>
       <c r="G35" t="n">
-        <v>224.2923101990128</v>
+        <v>52.81790813730607</v>
       </c>
       <c r="H35" t="n">
         <v>52.81790813730607</v>
@@ -6937,22 +6937,22 @@
         <v>52.81790813730607</v>
       </c>
       <c r="J35" t="n">
-        <v>64.30125257961251</v>
+        <v>325.4540650513632</v>
       </c>
       <c r="K35" t="n">
-        <v>114.4918460085549</v>
+        <v>876.2548336552125</v>
       </c>
       <c r="L35" t="n">
-        <v>200.7438605206802</v>
+        <v>962.5068481673378</v>
       </c>
       <c r="M35" t="n">
-        <v>854.3654737198428</v>
+        <v>1079.063967634735</v>
       </c>
       <c r="N35" t="n">
-        <v>1507.987086919005</v>
+        <v>1200.506078598073</v>
       </c>
       <c r="O35" t="n">
-        <v>2161.608700118168</v>
+        <v>1670.684960832426</v>
       </c>
       <c r="P35" t="n">
         <v>2235.719263702626</v>
@@ -6964,25 +6964,25 @@
         <v>2640.895406865303</v>
       </c>
       <c r="S35" t="n">
-        <v>2640.895406865303</v>
+        <v>2509.442235971082</v>
       </c>
       <c r="T35" t="n">
-        <v>2424.129936917582</v>
+        <v>2509.442235971082</v>
       </c>
       <c r="U35" t="n">
-        <v>2168.500293725551</v>
+        <v>2509.442235971082</v>
       </c>
       <c r="V35" t="n">
-        <v>1826.39348442907</v>
+        <v>2509.442235971082</v>
       </c>
       <c r="W35" t="n">
-        <v>1455.394449397357</v>
+        <v>2509.442235971082</v>
       </c>
       <c r="X35" t="n">
-        <v>1455.394449397357</v>
+        <v>2509.442235971082</v>
       </c>
       <c r="Y35" t="n">
-        <v>1455.394449397357</v>
+        <v>2112.951526891683</v>
       </c>
     </row>
     <row r="36">
@@ -7022,10 +7022,10 @@
         <v>692.1853246297533</v>
       </c>
       <c r="L36" t="n">
-        <v>778.2104801903139</v>
+        <v>1055.910544477935</v>
       </c>
       <c r="M36" t="n">
-        <v>891.1797434970069</v>
+        <v>1168.879807784628</v>
       </c>
       <c r="N36" t="n">
         <v>1294.20465053575</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.81790813730607</v>
+        <v>1026.337640709938</v>
       </c>
       <c r="C37" t="n">
-        <v>52.81790813730607</v>
+        <v>856.1325227759273</v>
       </c>
       <c r="D37" t="n">
-        <v>52.81790813730607</v>
+        <v>700.4994096784421</v>
       </c>
       <c r="E37" t="n">
-        <v>52.81790813730607</v>
+        <v>639.3898148836081</v>
       </c>
       <c r="F37" t="n">
-        <v>52.81790813730607</v>
+        <v>482.063880096581</v>
       </c>
       <c r="G37" t="n">
-        <v>52.81790813730607</v>
+        <v>314.4999800672044</v>
       </c>
       <c r="H37" t="n">
-        <v>52.81790813730607</v>
+        <v>165.1575243560796</v>
       </c>
       <c r="I37" t="n">
         <v>52.81790813730607</v>
@@ -7122,25 +7122,25 @@
         <v>1595.06918978025</v>
       </c>
       <c r="S37" t="n">
-        <v>1577.491398351173</v>
+        <v>1595.06918978025</v>
       </c>
       <c r="T37" t="n">
-        <v>1344.721185787167</v>
+        <v>1595.06918978025</v>
       </c>
       <c r="U37" t="n">
-        <v>1059.320038785678</v>
+        <v>1309.668042778761</v>
       </c>
       <c r="V37" t="n">
-        <v>793.3406936065021</v>
+        <v>1309.668042778761</v>
       </c>
       <c r="W37" t="n">
-        <v>510.0102915376797</v>
+        <v>1026.337640709938</v>
       </c>
       <c r="X37" t="n">
-        <v>275.9299693206627</v>
+        <v>1026.337640709938</v>
       </c>
       <c r="Y37" t="n">
-        <v>52.81790813730607</v>
+        <v>1026.337640709938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1114.720328691774</v>
+        <v>2292.676766023361</v>
       </c>
       <c r="C38" t="n">
-        <v>721.5448271947048</v>
+        <v>2056.708271826995</v>
       </c>
       <c r="D38" t="n">
-        <v>336.1036984113725</v>
+        <v>1671.267143043663</v>
       </c>
       <c r="E38" t="n">
-        <v>336.1036984113725</v>
+        <v>1268.683618160207</v>
       </c>
       <c r="F38" t="n">
-        <v>336.1036984113725</v>
+        <v>851.7891796901849</v>
       </c>
       <c r="G38" t="n">
-        <v>336.1036984113725</v>
+        <v>440.1650038453183</v>
       </c>
       <c r="H38" t="n">
-        <v>52.81790813730607</v>
+        <v>131.8389324278057</v>
       </c>
       <c r="I38" t="n">
         <v>52.81790813730607</v>
       </c>
       <c r="J38" t="n">
-        <v>325.4540650513632</v>
+        <v>64.30125257961251</v>
       </c>
       <c r="K38" t="n">
-        <v>876.2548336552125</v>
+        <v>615.1020211834617</v>
       </c>
       <c r="L38" t="n">
-        <v>962.5068481673378</v>
+        <v>701.3540356955871</v>
       </c>
       <c r="M38" t="n">
-        <v>1443.236427990081</v>
+        <v>953.1088956339246</v>
       </c>
       <c r="N38" t="n">
-        <v>1564.678538953418</v>
+        <v>1074.551006597262</v>
       </c>
       <c r="O38" t="n">
-        <v>1670.684960832426</v>
+        <v>1728.172619796425</v>
       </c>
       <c r="P38" t="n">
-        <v>2235.719263702626</v>
+        <v>2293.206922666626</v>
       </c>
       <c r="Q38" t="n">
-        <v>2583.407747901304</v>
+        <v>2640.895406865303</v>
       </c>
       <c r="R38" t="n">
         <v>2640.895406865303</v>
@@ -7204,22 +7204,22 @@
         <v>2509.442235971082</v>
       </c>
       <c r="T38" t="n">
-        <v>2509.442235971082</v>
+        <v>2292.676766023361</v>
       </c>
       <c r="U38" t="n">
-        <v>2253.812592779052</v>
+        <v>2292.676766023361</v>
       </c>
       <c r="V38" t="n">
-        <v>1911.70578348257</v>
+        <v>2292.676766023361</v>
       </c>
       <c r="W38" t="n">
-        <v>1911.70578348257</v>
+        <v>2292.676766023361</v>
       </c>
       <c r="X38" t="n">
-        <v>1911.70578348257</v>
+        <v>2292.676766023361</v>
       </c>
       <c r="Y38" t="n">
-        <v>1515.215074403171</v>
+        <v>2292.676766023361</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>52.81790813730607</v>
       </c>
       <c r="J39" t="n">
-        <v>52.81790813730607</v>
+        <v>242.1607038760409</v>
       </c>
       <c r="K39" t="n">
-        <v>94.40241684879194</v>
+        <v>692.1853246297533</v>
       </c>
       <c r="L39" t="n">
-        <v>180.4275724093526</v>
+        <v>1029.257356440104</v>
       </c>
       <c r="M39" t="n">
-        <v>834.0491856085151</v>
+        <v>1142.226619746797</v>
       </c>
       <c r="N39" t="n">
-        <v>1487.670798807678</v>
+        <v>1267.55146249792</v>
       </c>
       <c r="O39" t="n">
-        <v>1718.852893757719</v>
+        <v>1367.756342540643</v>
       </c>
       <c r="P39" t="n">
-        <v>2278.543551039668</v>
+        <v>1927.446999822592</v>
       </c>
       <c r="Q39" t="n">
-        <v>2291.456518664057</v>
+        <v>2264.803330626226</v>
       </c>
       <c r="R39" t="n">
         <v>2291.456518664057</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.81790813730607</v>
+        <v>208.4510212347913</v>
       </c>
       <c r="C40" t="n">
-        <v>52.81790813730607</v>
+        <v>208.4510212347913</v>
       </c>
       <c r="D40" t="n">
         <v>52.81790813730607</v>
@@ -7359,25 +7359,25 @@
         <v>1595.06918978025</v>
       </c>
       <c r="S40" t="n">
-        <v>1577.491398351173</v>
+        <v>1595.06918978025</v>
       </c>
       <c r="T40" t="n">
-        <v>1344.721185787167</v>
+        <v>1500.354298884653</v>
       </c>
       <c r="U40" t="n">
-        <v>1059.320038785678</v>
+        <v>1214.953151883163</v>
       </c>
       <c r="V40" t="n">
-        <v>793.3406936065021</v>
+        <v>948.9738067039873</v>
       </c>
       <c r="W40" t="n">
-        <v>510.0102915376797</v>
+        <v>665.6434046351649</v>
       </c>
       <c r="X40" t="n">
-        <v>275.9299693206627</v>
+        <v>431.5630824181479</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.81790813730607</v>
+        <v>208.4510212347913</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2034.677331850639</v>
+        <v>1130.804107746314</v>
       </c>
       <c r="C41" t="n">
-        <v>1641.501830353569</v>
+        <v>1130.804107746314</v>
       </c>
       <c r="D41" t="n">
-        <v>1256.060701570237</v>
+        <v>745.3629789629813</v>
       </c>
       <c r="E41" t="n">
-        <v>1189.662593869708</v>
+        <v>464.4420839821727</v>
       </c>
       <c r="F41" t="n">
-        <v>772.7681553996854</v>
+        <v>464.4420839821727</v>
       </c>
       <c r="G41" t="n">
-        <v>361.1439795548187</v>
+        <v>52.81790813730607</v>
       </c>
       <c r="H41" t="n">
         <v>52.81790813730607</v>
@@ -7411,28 +7411,28 @@
         <v>52.81790813730607</v>
       </c>
       <c r="J41" t="n">
-        <v>325.4540650513632</v>
+        <v>64.30125257961251</v>
       </c>
       <c r="K41" t="n">
-        <v>876.2548336552125</v>
+        <v>114.4918460085549</v>
       </c>
       <c r="L41" t="n">
-        <v>1529.876446854375</v>
+        <v>768.1134592077174</v>
       </c>
       <c r="M41" t="n">
-        <v>1646.433566321772</v>
+        <v>1421.73507240688</v>
       </c>
       <c r="N41" t="n">
-        <v>1892.577810528575</v>
+        <v>2075.356685606042</v>
       </c>
       <c r="O41" t="n">
-        <v>1998.584232407582</v>
+        <v>2553.05781627162</v>
       </c>
       <c r="P41" t="n">
-        <v>2563.618535277783</v>
+        <v>2621.106194241783</v>
       </c>
       <c r="Q41" t="n">
-        <v>2583.407747901304</v>
+        <v>2640.895406865303</v>
       </c>
       <c r="R41" t="n">
         <v>2640.895406865303</v>
@@ -7441,22 +7441,22 @@
         <v>2640.895406865303</v>
       </c>
       <c r="T41" t="n">
-        <v>2424.129936917582</v>
+        <v>2640.895406865303</v>
       </c>
       <c r="U41" t="n">
-        <v>2424.129936917582</v>
+        <v>2640.895406865303</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.129936917582</v>
+        <v>2298.788597568822</v>
       </c>
       <c r="W41" t="n">
-        <v>2424.129936917582</v>
+        <v>1927.789562537109</v>
       </c>
       <c r="X41" t="n">
-        <v>2034.677331850639</v>
+        <v>1927.789562537109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2034.677331850639</v>
+        <v>1531.29885345771</v>
       </c>
     </row>
     <row r="42">
@@ -7499,19 +7499,19 @@
         <v>778.2104801903139</v>
       </c>
       <c r="M42" t="n">
-        <v>1142.226619746797</v>
+        <v>891.1797434970069</v>
       </c>
       <c r="N42" t="n">
-        <v>1267.55146249792</v>
+        <v>1294.20465053575</v>
       </c>
       <c r="O42" t="n">
-        <v>1367.756342540643</v>
+        <v>1394.409530578474</v>
       </c>
       <c r="P42" t="n">
-        <v>1927.446999822592</v>
+        <v>1954.100187860423</v>
       </c>
       <c r="Q42" t="n">
-        <v>2264.803330626226</v>
+        <v>2291.456518664057</v>
       </c>
       <c r="R42" t="n">
         <v>2291.456518664057</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.81790813730607</v>
+        <v>353.7261016352052</v>
       </c>
       <c r="C43" t="n">
-        <v>52.81790813730607</v>
+        <v>183.5209837011944</v>
       </c>
       <c r="D43" t="n">
-        <v>52.81790813730607</v>
+        <v>183.5209837011944</v>
       </c>
       <c r="E43" t="n">
-        <v>52.81790813730607</v>
+        <v>183.5209837011944</v>
       </c>
       <c r="F43" t="n">
-        <v>52.81790813730607</v>
+        <v>183.5209837011944</v>
       </c>
       <c r="G43" t="n">
         <v>52.81790813730607</v>
@@ -7596,25 +7596,25 @@
         <v>1595.06918978025</v>
       </c>
       <c r="S43" t="n">
-        <v>1477.298270040985</v>
+        <v>1595.06918978025</v>
       </c>
       <c r="T43" t="n">
-        <v>1244.528057476979</v>
+        <v>1362.298977216244</v>
       </c>
       <c r="U43" t="n">
-        <v>1244.528057476979</v>
+        <v>1076.897830214755</v>
       </c>
       <c r="V43" t="n">
-        <v>978.5487122978034</v>
+        <v>810.9184850355788</v>
       </c>
       <c r="W43" t="n">
-        <v>695.218310228981</v>
+        <v>810.9184850355788</v>
       </c>
       <c r="X43" t="n">
-        <v>461.137988011964</v>
+        <v>576.8381628185618</v>
       </c>
       <c r="Y43" t="n">
-        <v>238.0259268286073</v>
+        <v>353.7261016352052</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>609.8983317851494</v>
+        <v>1756.116573123219</v>
       </c>
       <c r="C44" t="n">
-        <v>216.7228302880799</v>
+        <v>1362.94107162615</v>
       </c>
       <c r="D44" t="n">
-        <v>216.7228302880799</v>
+        <v>1362.94107162615</v>
       </c>
       <c r="E44" t="n">
-        <v>216.7228302880799</v>
+        <v>960.3575467426946</v>
       </c>
       <c r="F44" t="n">
-        <v>216.7228302880799</v>
+        <v>543.4631082726723</v>
       </c>
       <c r="G44" t="n">
-        <v>52.81790813730607</v>
+        <v>131.8389324278057</v>
       </c>
       <c r="H44" t="n">
-        <v>52.81790813730607</v>
+        <v>131.8389324278057</v>
       </c>
       <c r="I44" t="n">
         <v>52.81790813730607</v>
@@ -7651,16 +7651,16 @@
         <v>325.4540650513632</v>
       </c>
       <c r="K44" t="n">
-        <v>668.1692229430058</v>
+        <v>876.2548336552125</v>
       </c>
       <c r="L44" t="n">
-        <v>754.4212374551312</v>
+        <v>1529.876446854375</v>
       </c>
       <c r="M44" t="n">
-        <v>1408.042850654294</v>
+        <v>1646.433566321772</v>
       </c>
       <c r="N44" t="n">
-        <v>2061.664463853456</v>
+        <v>1767.87567728511</v>
       </c>
       <c r="O44" t="n">
         <v>2167.670885732463</v>
@@ -7678,22 +7678,22 @@
         <v>2509.442235971082</v>
       </c>
       <c r="T44" t="n">
-        <v>2509.442235971082</v>
+        <v>2292.676766023361</v>
       </c>
       <c r="U44" t="n">
-        <v>2509.442235971082</v>
+        <v>2152.607282202619</v>
       </c>
       <c r="V44" t="n">
-        <v>2167.335426674601</v>
+        <v>2152.607282202619</v>
       </c>
       <c r="W44" t="n">
-        <v>1796.336391642888</v>
+        <v>2152.607282202619</v>
       </c>
       <c r="X44" t="n">
-        <v>1406.883786575945</v>
+        <v>2152.607282202619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1010.393077496546</v>
+        <v>1756.116573123219</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>52.81790813730607</v>
       </c>
       <c r="J45" t="n">
-        <v>52.81790813730607</v>
+        <v>242.1607038760409</v>
       </c>
       <c r="K45" t="n">
-        <v>502.8425288910184</v>
+        <v>692.1853246297533</v>
       </c>
       <c r="L45" t="n">
-        <v>588.8676844515791</v>
+        <v>1029.257356440104</v>
       </c>
       <c r="M45" t="n">
-        <v>701.8369477582721</v>
+        <v>1142.226619746797</v>
       </c>
       <c r="N45" t="n">
-        <v>1355.458560957435</v>
+        <v>1267.55146249792</v>
       </c>
       <c r="O45" t="n">
-        <v>1692.199705719888</v>
+        <v>1367.756342540643</v>
       </c>
       <c r="P45" t="n">
-        <v>2251.890363001837</v>
+        <v>1927.446999822592</v>
       </c>
       <c r="Q45" t="n">
         <v>2264.803330626226</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>383.9372386182632</v>
+        <v>52.81790813730607</v>
       </c>
       <c r="C46" t="n">
-        <v>213.7321206842524</v>
+        <v>52.81790813730607</v>
       </c>
       <c r="D46" t="n">
-        <v>213.7321206842524</v>
+        <v>52.81790813730607</v>
       </c>
       <c r="E46" t="n">
-        <v>213.7321206842524</v>
+        <v>52.81790813730607</v>
       </c>
       <c r="F46" t="n">
-        <v>213.7321206842524</v>
+        <v>52.81790813730607</v>
       </c>
       <c r="G46" t="n">
         <v>52.81790813730607</v>
@@ -7833,25 +7833,25 @@
         <v>1595.06918978025</v>
       </c>
       <c r="S46" t="n">
-        <v>1595.06918978025</v>
+        <v>1404.280605699599</v>
       </c>
       <c r="T46" t="n">
-        <v>1595.06918978025</v>
+        <v>1171.510393135593</v>
       </c>
       <c r="U46" t="n">
-        <v>1309.668042778761</v>
+        <v>886.1092461341034</v>
       </c>
       <c r="V46" t="n">
-        <v>1309.668042778761</v>
+        <v>620.1299009549276</v>
       </c>
       <c r="W46" t="n">
-        <v>1026.337640709938</v>
+        <v>336.7994988861053</v>
       </c>
       <c r="X46" t="n">
-        <v>792.2573184929212</v>
+        <v>336.7994988861053</v>
       </c>
       <c r="Y46" t="n">
-        <v>569.1452573095645</v>
+        <v>113.6874377027486</v>
       </c>
     </row>
   </sheetData>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>483.9580312136551</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>110.138660852628</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>448.4124792427336</v>
       </c>
       <c r="O11" t="n">
         <v>464.0040843784212</v>
       </c>
       <c r="P11" t="n">
-        <v>163.9283703685761</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>5.446665899992468</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>253.5827032826173</v>
       </c>
       <c r="M12" t="n">
-        <v>456.9709112191424</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>444.4905279419406</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>469.8642276473949</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>310.6006433910336</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,19 +8935,19 @@
         <v>483.9580312136552</v>
       </c>
       <c r="M14" t="n">
-        <v>221.1827347368595</v>
+        <v>453.346814087118</v>
       </c>
       <c r="N14" t="n">
-        <v>448.4124792427336</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>464.0040843784212</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>85.25037917301009</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>5.446665899992468</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>310.6006433910337</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>456.9709112191424</v>
       </c>
       <c r="N15" t="n">
-        <v>444.4905279419406</v>
+        <v>209.1775618030976</v>
       </c>
       <c r="O15" t="n">
-        <v>469.864227647395</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9166,25 +9166,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>483.9580312136552</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>421.3960994468455</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>448.4124792427336</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>14.8823961152532</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,31 +9242,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>5.446665899992468</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>484.1871816697812</v>
       </c>
       <c r="M18" t="n">
-        <v>456.9709112191424</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>342.5101223218688</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>266.1974406911374</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>44.09139274623566</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,22 +9403,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>483.9580312136552</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>453.346814087118</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>85.25037917301006</v>
+        <v>14.8823961152532</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9661,7 +9661,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5176150018522</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>5.446665899992468</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>51.7069295650676</v>
+        <v>253.5827032826164</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>44.09139274623566</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488193</v>
       </c>
       <c r="N26" t="n">
         <v>682.2612020826953</v>
@@ -9898,7 +9898,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>102.5176150018522</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>5.446665899992468</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>253.5827032826164</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>234.5747189329922</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>44.09139274623566</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684354</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
@@ -10135,7 +10135,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018522</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>5.446665899992468</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>51.72325495054091</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>234.5747189329921</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>44.09139274623566</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
-        <v>102.5176150018526</v>
+        <v>102.5176150018522</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>542.4893876078438</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>537.5550527634595</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>553.146657899147</v>
+        <v>367.8509700559049</v>
       </c>
       <c r="P35" t="n">
-        <v>6.123419812420025</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10670,13 +10670,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>280.5051154420412</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>280.5051154420412</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10831,13 +10831,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>367.8509700559048</v>
+        <v>136.5633742130711</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>553.146657899147</v>
       </c>
       <c r="P38" t="n">
         <v>502.0059847475129</v>
@@ -10846,7 +10846,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>102.5176150018526</v>
+        <v>44.44927261397453</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>5.446665899992468</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>253.5827032826164</v>
       </c>
       <c r="M39" t="n">
-        <v>546.1134847398682</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>533.6331014626664</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>132.3002170780991</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>44.09139274623566</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>505.666843611017</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>573.100604734381</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>542.4893876078438</v>
       </c>
       <c r="N41" t="n">
-        <v>125.9617507509753</v>
+        <v>537.5550527634595</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>375.4492007945154</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>44.44927261397453</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,10 +11147,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>253.5827032826163</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>280.5051154420412</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>44.09139274623566</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>295.4793580431316</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>573.100604734381</v>
       </c>
       <c r="M44" t="n">
-        <v>542.4893876078438</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>537.5550527634595</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>296.756350069037</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>5.446665899992468</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>253.5827032826164</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>533.6331014626664</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>238.9255199189197</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23266,19 +23266,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>380.3121175837247</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>177.1125726440381</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>305.2428107033375</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>78.23081404759461</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.1386391852787</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.5978152482438</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0733467601107</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23323,10 +23323,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.8490311540135</v>
       </c>
       <c r="I13" t="n">
-        <v>111.2162200565858</v>
+        <v>41.28672131693865</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>91.94047005213785</v>
       </c>
       <c r="S13" t="n">
-        <v>32.59551734178518</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.4425104383659</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5471355314745</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>407.507934086418</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.2428107033375</v>
       </c>
       <c r="I14" t="n">
-        <v>78.23081404759461</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.1386391852787</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>40.72041517999801</v>
+        <v>214.5978152482438</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0733467601107</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>309.4089344912666</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>163.9547090263662</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8882610290828</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.8490311540135</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>111.2162200565858</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>91.94047005213785</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>23.2204272753888</v>
       </c>
       <c r="T16" t="n">
         <v>230.4425104383659</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5471355314745</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>278.0479397318916</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>169.8591556167572</v>
+        <v>407.507934086418</v>
       </c>
       <c r="H17" t="n">
         <v>305.2428107033375</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>130.1386391852787</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>214.5978152482438</v>
@@ -23797,7 +23797,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.8882610290828</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.8490311540135</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>111.2162200565858</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>91.94047005213785</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>76.66219975234517</v>
       </c>
       <c r="T19" t="n">
-        <v>230.4425104383659</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5471355314745</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>123.5780689086509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>173.1412111232631</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>407.507934086418</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2428107033375</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>78.23081404759461</v>
@@ -24025,19 +24025,19 @@
         <v>214.5978152482438</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0733467601107</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>211.3949848930783</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24135,16 +24135,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>95.73139821837287</v>
+        <v>52.71072266377006</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.8882610290828</v>
       </c>
       <c r="H22" t="n">
-        <v>147.8490311540135</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>111.2162200565858</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5471355314745</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>73.00452471039489</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>73.00452471039534</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>71.14758072980881</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24378,7 +24378,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.8882610290828</v>
       </c>
       <c r="H25" t="n">
         <v>147.8490311540135</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>91.94047005213785</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>171.4786847250586</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>73.00452471039505</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>73.004524710395</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>20.12153014175433</v>
+        <v>165.8882610290828</v>
       </c>
       <c r="H28" t="n">
-        <v>147.8490311540135</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>111.2162200565858</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.94047005213785</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>188.8806982398446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>230.4425104383659</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5471355314745</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>27.9326134566999</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>73.004524710395</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>73.00452471039546</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24852,13 +24852,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>19.54577699491153</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.8490311540135</v>
       </c>
       <c r="I31" t="n">
-        <v>97.72028401870186</v>
+        <v>111.2162200565858</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>188.8806982398446</v>
       </c>
       <c r="T31" t="n">
-        <v>230.4425104383659</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5471355314745</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>73.00452471039512</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>73.00452471039489</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.8882610290828</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.8490311540135</v>
       </c>
       <c r="I34" t="n">
-        <v>20.78229712429017</v>
+        <v>111.2162200565858</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>91.94047005213785</v>
       </c>
       <c r="S34" t="n">
-        <v>188.8806982398446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.4425104383659</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>262.6771107549323</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>346.5790974714081</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>135.4831526622478</v>
+        <v>305.2428107033375</v>
       </c>
       <c r="I35" t="n">
         <v>78.23081404759461</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.1386391852787</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.5978152482438</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0733467601107</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>93.50472517250381</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.8882610290828</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.8490311540135</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>111.2162200565858</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>91.94047005213785</v>
       </c>
       <c r="S37" t="n">
-        <v>171.4786847250586</v>
+        <v>188.8806982398446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>230.4425104383659</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>155.6349372276959</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>407.507934086418</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>24.78987833201165</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>78.23081404759461</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>214.5978152482438</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0733467601107</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -25459,7 +25459,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -25599,10 +25599,10 @@
         <v>91.94047005213785</v>
       </c>
       <c r="S40" t="n">
-        <v>171.4786847250586</v>
+        <v>188.8806982398446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>136.6747684517245</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>332.8235630110966</v>
+        <v>120.4460036036205</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>305.2428107033375</v>
       </c>
       <c r="I41" t="n">
         <v>78.23081404759461</v>
@@ -25681,22 +25681,22 @@
         <v>130.1386391852787</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.5978152482438</v>
       </c>
       <c r="U41" t="n">
         <v>253.0733467601107</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25800,7 +25800,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>165.8882610290828</v>
+        <v>36.4922162208334</v>
       </c>
       <c r="H43" t="n">
         <v>147.8490311540135</v>
@@ -25836,19 +25836,19 @@
         <v>91.94047005213785</v>
       </c>
       <c r="S43" t="n">
-        <v>72.28748769797244</v>
+        <v>188.8806982398446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5471355314745</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>245.2420611571519</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>305.2428107033375</v>
       </c>
       <c r="I44" t="n">
-        <v>78.23081404759461</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.5978152482438</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0733467601107</v>
+        <v>114.4045577775753</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>123.0951042346001</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26037,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>6.583190607605928</v>
+        <v>165.8882610290828</v>
       </c>
       <c r="H46" t="n">
         <v>147.8490311540135</v>
@@ -26073,22 +26073,22 @@
         <v>91.94047005213785</v>
       </c>
       <c r="S46" t="n">
-        <v>188.8806982398446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>230.4425104383659</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>509238.4770872267</v>
+        <v>509238.4770872265</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>509238.4770872266</v>
+        <v>509238.4770872265</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760424.1139033784</v>
+        <v>760424.1139033785</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760424.1139033785</v>
+        <v>760424.1139033784</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760424.1139033784</v>
+        <v>760424.1139033785</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>543153.238026301</v>
+        <v>543153.2380263009</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>543153.238026301</v>
+        <v>543153.2380263009</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>543153.2380263009</v>
+        <v>543153.2380263011</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>543153.238026301</v>
+        <v>543153.2380263009</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>611657.352470038</v>
       </c>
       <c r="C2" t="n">
-        <v>611657.3524700381</v>
+        <v>611657.3524700379</v>
       </c>
       <c r="D2" t="n">
-        <v>611657.352470038</v>
+        <v>611657.3524700379</v>
       </c>
       <c r="E2" t="n">
         <v>404148.7762317106</v>
       </c>
       <c r="F2" t="n">
-        <v>404148.7762317105</v>
+        <v>404148.7762317106</v>
       </c>
       <c r="G2" t="n">
         <v>404148.7762317106</v>
       </c>
       <c r="H2" t="n">
-        <v>404148.7762317106</v>
+        <v>404148.7762317107</v>
       </c>
       <c r="I2" t="n">
         <v>577507.0065600079</v>
       </c>
       <c r="J2" t="n">
-        <v>577507.006560008</v>
+        <v>577507.0065600077</v>
       </c>
       <c r="K2" t="n">
         <v>577507.0065600076</v>
       </c>
       <c r="L2" t="n">
-        <v>577507.0065600075</v>
+        <v>577507.0065600077</v>
       </c>
       <c r="M2" t="n">
+        <v>427555.3810556497</v>
+      </c>
+      <c r="N2" t="n">
         <v>427555.3810556498</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>427555.3810556497</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>427555.3810556498</v>
-      </c>
-      <c r="P2" t="n">
-        <v>427555.3810556497</v>
       </c>
     </row>
     <row r="3">
@@ -26426,16 +26426,16 @@
         <v>373785.5528862592</v>
       </c>
       <c r="E4" t="n">
-        <v>81786.13425018766</v>
+        <v>81786.13425018769</v>
       </c>
       <c r="F4" t="n">
         <v>81786.13425018768</v>
       </c>
       <c r="G4" t="n">
-        <v>81786.13425018768</v>
+        <v>81786.13425018769</v>
       </c>
       <c r="H4" t="n">
-        <v>81786.13425018766</v>
+        <v>81786.13425018769</v>
       </c>
       <c r="I4" t="n">
         <v>149728.1356092194</v>
@@ -26459,7 +26459,7 @@
         <v>90959.57570576087</v>
       </c>
       <c r="P4" t="n">
-        <v>90959.57570576084</v>
+        <v>90959.57570576086</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>204244.1995837789</v>
+        <v>204239.8700159924</v>
       </c>
       <c r="C6" t="n">
-        <v>204244.199583779</v>
+        <v>204239.8700159923</v>
       </c>
       <c r="D6" t="n">
-        <v>204244.1995837789</v>
+        <v>204239.8700159923</v>
       </c>
       <c r="E6" t="n">
-        <v>-195536.2632955657</v>
+        <v>-196150.9122052296</v>
       </c>
       <c r="F6" t="n">
-        <v>279381.0007061996</v>
+        <v>278766.3517965358</v>
       </c>
       <c r="G6" t="n">
-        <v>279381.0007061996</v>
+        <v>278766.3517965358</v>
       </c>
       <c r="H6" t="n">
-        <v>279381.0007061997</v>
+        <v>278766.3517965359</v>
       </c>
       <c r="I6" t="n">
-        <v>169088.2326188555</v>
+        <v>168983.4608572161</v>
       </c>
       <c r="J6" t="n">
-        <v>344655.6194911128</v>
+        <v>344550.847729473</v>
       </c>
       <c r="K6" t="n">
-        <v>344655.6194911123</v>
+        <v>344550.8477294729</v>
       </c>
       <c r="L6" t="n">
-        <v>344655.6194911122</v>
+        <v>344550.847729473</v>
       </c>
       <c r="M6" t="n">
-        <v>288194.2956045055</v>
+        <v>287648.4896502061</v>
       </c>
       <c r="N6" t="n">
-        <v>288194.2956045055</v>
+        <v>287648.4896502062</v>
       </c>
       <c r="O6" t="n">
-        <v>288194.2956045055</v>
+        <v>287648.4896502062</v>
       </c>
       <c r="P6" t="n">
-        <v>288194.2956045055</v>
+        <v>287648.4896502063</v>
       </c>
     </row>
   </sheetData>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.59933782051158</v>
+        <v>275.3900574889467</v>
       </c>
       <c r="K11" t="n">
-        <v>556.3644127311609</v>
+        <v>50.69756912014384</v>
       </c>
       <c r="L11" t="n">
+        <v>87.12324698194487</v>
+      </c>
+      <c r="M11" t="n">
+        <v>227.87312496111</v>
+      </c>
+      <c r="N11" t="n">
         <v>571.0812781956</v>
-      </c>
-      <c r="M11" t="n">
-        <v>117.734464108482</v>
-      </c>
-      <c r="N11" t="n">
-        <v>122.6687989528665</v>
       </c>
       <c r="O11" t="n">
         <v>571.0812781956</v>
       </c>
       <c r="P11" t="n">
-        <v>232.664105691973</v>
+        <v>68.73573532339694</v>
       </c>
       <c r="Q11" t="n">
-        <v>19.98910366012203</v>
+        <v>351.2004890895734</v>
       </c>
       <c r="R11" t="n">
         <v>58.06834238787809</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>191.2553492310453</v>
       </c>
       <c r="K12" t="n">
-        <v>42.00455425402616</v>
+        <v>454.5703239936488</v>
       </c>
       <c r="L12" t="n">
-        <v>86.89409652581888</v>
+        <v>340.4767998084362</v>
       </c>
       <c r="M12" t="n">
-        <v>571.0812781956</v>
+        <v>114.1103669764576</v>
       </c>
       <c r="N12" t="n">
-        <v>571.0812781956</v>
+        <v>126.5907502536594</v>
       </c>
       <c r="O12" t="n">
-        <v>571.0812781956</v>
+        <v>101.2170505482051</v>
       </c>
       <c r="P12" t="n">
-        <v>379.1428225773266</v>
+        <v>565.344098264595</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.04340164079707</v>
+        <v>340.7639705087217</v>
       </c>
       <c r="R12" t="n">
         <v>26.92241215942482</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.59933782051155</v>
+        <v>275.3900574889466</v>
       </c>
       <c r="K14" t="n">
         <v>50.69756912014381</v>
@@ -35655,19 +35655,19 @@
         <v>571.0812781956</v>
       </c>
       <c r="M14" t="n">
-        <v>338.9171988453414</v>
+        <v>571.0812781956</v>
       </c>
       <c r="N14" t="n">
-        <v>571.0812781956</v>
+        <v>122.6687989528664</v>
       </c>
       <c r="O14" t="n">
-        <v>571.0812781956</v>
+        <v>107.0771938171788</v>
       </c>
       <c r="P14" t="n">
-        <v>68.73573532339691</v>
+        <v>153.986114496407</v>
       </c>
       <c r="Q14" t="n">
-        <v>19.989103660122</v>
+        <v>351.2004890895733</v>
       </c>
       <c r="R14" t="n">
         <v>58.06834238787808</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>191.2553492310453</v>
       </c>
       <c r="K15" t="n">
         <v>42.00455425402613</v>
       </c>
       <c r="L15" t="n">
-        <v>397.4947399168525</v>
+        <v>86.89409652581885</v>
       </c>
       <c r="M15" t="n">
         <v>571.0812781956</v>
       </c>
       <c r="N15" t="n">
-        <v>571.0812781956</v>
+        <v>335.7683120567569</v>
       </c>
       <c r="O15" t="n">
-        <v>571.0812781956</v>
+        <v>101.2170505482051</v>
       </c>
       <c r="P15" t="n">
-        <v>68.54217918629303</v>
+        <v>565.344098264595</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.04340164079706</v>
+        <v>340.7639705087216</v>
       </c>
       <c r="R15" t="n">
         <v>26.92241215942482</v>
@@ -35886,25 +35886,25 @@
         <v>275.3900574889466</v>
       </c>
       <c r="K17" t="n">
-        <v>50.69756912014381</v>
+        <v>556.3644127311608</v>
       </c>
       <c r="L17" t="n">
-        <v>571.0812781956</v>
+        <v>87.12324698194482</v>
       </c>
       <c r="M17" t="n">
-        <v>539.1305635553275</v>
+        <v>117.734464108482</v>
       </c>
       <c r="N17" t="n">
-        <v>571.0812781956</v>
+        <v>122.6687989528664</v>
       </c>
       <c r="O17" t="n">
-        <v>107.0771938171788</v>
+        <v>121.959589932432</v>
       </c>
       <c r="P17" t="n">
-        <v>68.73573532339691</v>
+        <v>570.7417200709099</v>
       </c>
       <c r="Q17" t="n">
-        <v>19.989103660122</v>
+        <v>351.2004890895733</v>
       </c>
       <c r="R17" t="n">
         <v>58.06834238787808</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>191.2553492310453</v>
       </c>
       <c r="K18" t="n">
         <v>454.5703239936488</v>
       </c>
       <c r="L18" t="n">
-        <v>86.89409652581885</v>
+        <v>571.0812781956</v>
       </c>
       <c r="M18" t="n">
-        <v>571.0812781956</v>
+        <v>114.1103669764576</v>
       </c>
       <c r="N18" t="n">
-        <v>469.1008725755281</v>
+        <v>126.5907502536593</v>
       </c>
       <c r="O18" t="n">
         <v>101.2170505482051</v>
       </c>
       <c r="P18" t="n">
-        <v>565.344098264595</v>
+        <v>334.7396198774305</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.04340164079706</v>
+        <v>340.7639705087216</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>26.92241215942482</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>275.3900574889466</v>
       </c>
       <c r="K20" t="n">
-        <v>50.69756912014381</v>
+        <v>556.3644127311608</v>
       </c>
       <c r="L20" t="n">
-        <v>571.0812781956</v>
+        <v>87.12324698194482</v>
       </c>
       <c r="M20" t="n">
-        <v>571.0812781956</v>
+        <v>117.734464108482</v>
       </c>
       <c r="N20" t="n">
         <v>122.6687989528664</v>
       </c>
       <c r="O20" t="n">
-        <v>192.3275729901889</v>
+        <v>121.959589932432</v>
       </c>
       <c r="P20" t="n">
-        <v>68.73573532339691</v>
+        <v>570.7417200709099</v>
       </c>
       <c r="Q20" t="n">
         <v>351.2004890895733</v>
@@ -36381,7 +36381,7 @@
         <v>351.2004890895733</v>
       </c>
       <c r="R23" t="n">
-        <v>58.06834238787768</v>
+        <v>58.06834238787808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>191.2553492310453</v>
       </c>
       <c r="K24" t="n">
         <v>454.5703239936488</v>
       </c>
       <c r="L24" t="n">
-        <v>138.6010260908864</v>
+        <v>340.4767998084352</v>
       </c>
       <c r="M24" t="n">
         <v>114.1103669764576</v>
       </c>
       <c r="N24" t="n">
-        <v>874.3648542296029</v>
+        <v>126.5907502536593</v>
       </c>
       <c r="O24" t="n">
         <v>101.2170505482051</v>
@@ -36457,10 +36457,10 @@
         <v>565.344098264595</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.04340164079706</v>
+        <v>340.7639705087216</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>26.92241215942482</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>738.6747416806475</v>
       </c>
       <c r="M26" t="n">
-        <v>818.9755763573007</v>
+        <v>818.9755763573012</v>
       </c>
       <c r="N26" t="n">
         <v>804.9300010355616</v>
@@ -36618,7 +36618,7 @@
         <v>351.2004890895733</v>
       </c>
       <c r="R26" t="n">
-        <v>58.06834238787768</v>
+        <v>58.06834238787808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>191.2553492310453</v>
       </c>
       <c r="K27" t="n">
-        <v>42.00455425402613</v>
+        <v>454.5703239936488</v>
       </c>
       <c r="L27" t="n">
-        <v>86.89409652581885</v>
+        <v>340.4767998084352</v>
       </c>
       <c r="M27" t="n">
-        <v>840.6102664264575</v>
+        <v>114.1103669764576</v>
       </c>
       <c r="N27" t="n">
-        <v>874.3648542296029</v>
+        <v>126.5907502536593</v>
       </c>
       <c r="O27" t="n">
         <v>101.2170505482051</v>
       </c>
       <c r="P27" t="n">
-        <v>303.1168981192852</v>
+        <v>565.344098264595</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.04340164079706</v>
+        <v>340.7639705087216</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>26.92241215942482</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>275.3900574889466</v>
+        <v>275.390057488947</v>
       </c>
       <c r="K29" t="n">
         <v>556.3644127311608</v>
@@ -36855,7 +36855,7 @@
         <v>351.2004890895733</v>
       </c>
       <c r="R29" t="n">
-        <v>58.06834238787768</v>
+        <v>58.06834238787808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>191.2553492310453</v>
       </c>
       <c r="K30" t="n">
-        <v>42.00455425402613</v>
+        <v>93.72780920456704</v>
       </c>
       <c r="L30" t="n">
         <v>86.89409652581885</v>
       </c>
       <c r="M30" t="n">
-        <v>840.6102664264575</v>
+        <v>114.1103669764576</v>
       </c>
       <c r="N30" t="n">
-        <v>874.3648542296029</v>
+        <v>126.5907502536593</v>
       </c>
       <c r="O30" t="n">
-        <v>335.7917694811973</v>
+        <v>715.6422686199031</v>
       </c>
       <c r="P30" t="n">
-        <v>68.54217918629303</v>
+        <v>565.344098264595</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.04340164079706</v>
+        <v>340.7639705087216</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>26.92241215942482</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>351.2004890895733</v>
       </c>
       <c r="R32" t="n">
-        <v>58.06834238787808</v>
+        <v>58.06834238787768</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.59933782051155</v>
+        <v>275.3900574889466</v>
       </c>
       <c r="K35" t="n">
-        <v>50.69756912014381</v>
+        <v>556.3644127311608</v>
       </c>
       <c r="L35" t="n">
         <v>87.12324698194482</v>
       </c>
       <c r="M35" t="n">
-        <v>660.2238517163258</v>
+        <v>117.734464108482</v>
       </c>
       <c r="N35" t="n">
-        <v>660.2238517163258</v>
+        <v>122.6687989528664</v>
       </c>
       <c r="O35" t="n">
-        <v>660.2238517163258</v>
+        <v>474.9281638730837</v>
       </c>
       <c r="P35" t="n">
-        <v>74.85915513581693</v>
+        <v>570.7417200709099</v>
       </c>
       <c r="Q35" t="n">
         <v>351.2004890895733</v>
@@ -37390,13 +37390,13 @@
         <v>454.5703239936488</v>
       </c>
       <c r="L36" t="n">
-        <v>86.89409652581885</v>
+        <v>367.3992119678601</v>
       </c>
       <c r="M36" t="n">
         <v>114.1103669764576</v>
       </c>
       <c r="N36" t="n">
-        <v>407.0958656957006</v>
+        <v>126.5907502536593</v>
       </c>
       <c r="O36" t="n">
         <v>101.2170505482051</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>275.3900574889466</v>
+        <v>11.59933782051155</v>
       </c>
       <c r="K38" t="n">
         <v>556.3644127311608</v>
@@ -37551,13 +37551,13 @@
         <v>87.12324698194482</v>
       </c>
       <c r="M38" t="n">
-        <v>485.5854341643868</v>
+        <v>254.2978383215531</v>
       </c>
       <c r="N38" t="n">
         <v>122.6687989528664</v>
       </c>
       <c r="O38" t="n">
-        <v>107.0771938171788</v>
+        <v>660.2238517163258</v>
       </c>
       <c r="P38" t="n">
         <v>570.7417200709099</v>
@@ -37566,7 +37566,7 @@
         <v>351.2004890895733</v>
       </c>
       <c r="R38" t="n">
-        <v>58.06834238787808</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>191.2553492310453</v>
       </c>
       <c r="K39" t="n">
-        <v>42.00455425402613</v>
+        <v>454.5703239936488</v>
       </c>
       <c r="L39" t="n">
-        <v>86.89409652581885</v>
+        <v>340.4767998084352</v>
       </c>
       <c r="M39" t="n">
-        <v>660.2238517163258</v>
+        <v>114.1103669764576</v>
       </c>
       <c r="N39" t="n">
-        <v>660.2238517163258</v>
+        <v>126.5907502536593</v>
       </c>
       <c r="O39" t="n">
-        <v>233.5172676263042</v>
+        <v>101.2170505482051</v>
       </c>
       <c r="P39" t="n">
         <v>565.344098264595</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.04340164079706</v>
+        <v>340.7639705087216</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>26.92241215942482</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>275.3900574889466</v>
+        <v>11.59933782051155</v>
       </c>
       <c r="K41" t="n">
-        <v>556.3644127311608</v>
+        <v>50.69756912014381</v>
       </c>
       <c r="L41" t="n">
         <v>660.2238517163258</v>
       </c>
       <c r="M41" t="n">
-        <v>117.734464108482</v>
+        <v>660.2238517163258</v>
       </c>
       <c r="N41" t="n">
-        <v>248.6305497038417</v>
+        <v>660.2238517163258</v>
       </c>
       <c r="O41" t="n">
-        <v>107.0771938171788</v>
+        <v>482.5263946116942</v>
       </c>
       <c r="P41" t="n">
-        <v>570.7417200709099</v>
+        <v>68.73573532339691</v>
       </c>
       <c r="Q41" t="n">
         <v>19.989103660122</v>
       </c>
       <c r="R41" t="n">
-        <v>58.06834238787808</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>86.89409652581885</v>
       </c>
       <c r="M42" t="n">
-        <v>367.6930702590739</v>
+        <v>114.1103669764576</v>
       </c>
       <c r="N42" t="n">
-        <v>126.5907502536593</v>
+        <v>407.0958656957006</v>
       </c>
       <c r="O42" t="n">
         <v>101.2170505482051</v>
@@ -37882,7 +37882,7 @@
         <v>340.7639705087216</v>
       </c>
       <c r="R42" t="n">
-        <v>26.92241215942482</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>275.3900574889466</v>
       </c>
       <c r="K44" t="n">
-        <v>346.1769271632754</v>
+        <v>556.3644127311608</v>
       </c>
       <c r="L44" t="n">
-        <v>87.12324698194482</v>
+        <v>660.2238517163258</v>
       </c>
       <c r="M44" t="n">
-        <v>660.2238517163258</v>
+        <v>117.734464108482</v>
       </c>
       <c r="N44" t="n">
-        <v>660.2238517163258</v>
+        <v>122.6687989528664</v>
       </c>
       <c r="O44" t="n">
-        <v>107.0771938171788</v>
+        <v>403.8335438862158</v>
       </c>
       <c r="P44" t="n">
         <v>68.73573532339691</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>191.2553492310453</v>
       </c>
       <c r="K45" t="n">
         <v>454.5703239936488</v>
       </c>
       <c r="L45" t="n">
-        <v>86.89409652581885</v>
+        <v>340.4767998084352</v>
       </c>
       <c r="M45" t="n">
         <v>114.1103669764576</v>
       </c>
       <c r="N45" t="n">
-        <v>660.2238517163258</v>
+        <v>126.5907502536593</v>
       </c>
       <c r="O45" t="n">
-        <v>340.1425704671248</v>
+        <v>101.2170505482051</v>
       </c>
       <c r="P45" t="n">
         <v>565.344098264595</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.04340164079706</v>
+        <v>340.7639705087216</v>
       </c>
       <c r="R45" t="n">
         <v>26.92241215942482</v>
